--- a/SeaWar info/تجهیزات نادر.xlsx
+++ b/SeaWar info/تجهیزات نادر.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E246B8-57F0-476B-86CA-34FA702D41E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -178,6 +179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -225,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +262,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,32 +506,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -510,7 +548,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -592,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -631,7 +669,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -670,7 +708,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -709,7 +747,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -748,7 +786,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -787,7 +825,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -826,7 +864,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -836,7 +874,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -853,7 +891,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -894,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -935,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -975,7 +1013,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>3</v>
       </c>
@@ -1015,7 +1053,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>4</v>
       </c>
@@ -1055,7 +1093,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>5</v>
       </c>
@@ -1095,7 +1133,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>6</v>
       </c>
@@ -1135,7 +1173,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>7</v>
       </c>
@@ -1175,7 +1213,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
@@ -1190,7 +1228,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1245,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1</v>
       </c>
@@ -1289,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2</v>
       </c>
@@ -1330,7 +1368,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -1371,7 +1409,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>4</v>
       </c>
@@ -1412,7 +1450,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>5</v>
       </c>
@@ -1453,7 +1491,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>6</v>
       </c>
@@ -1494,7 +1532,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>7</v>
       </c>
@@ -1535,7 +1573,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1550,7 +1588,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="9"/>
@@ -1565,7 +1603,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="9"/>
@@ -1580,7 +1618,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="9"/>
@@ -1595,7 +1633,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="9"/>
@@ -1610,7 +1648,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
@@ -1625,7 +1663,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
@@ -1640,7 +1678,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="9"/>
@@ -1655,7 +1693,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="9"/>
@@ -1670,7 +1708,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="9"/>
@@ -1685,7 +1723,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="9"/>
@@ -1700,7 +1738,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="9"/>
@@ -1715,7 +1753,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -1730,7 +1768,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1745,7 +1783,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1760,7 +1798,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
@@ -1775,7 +1813,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
@@ -1790,7 +1828,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="3"/>
@@ -1805,7 +1843,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
@@ -1820,7 +1858,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
@@ -1835,7 +1873,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
@@ -1850,7 +1888,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
@@ -1865,7 +1903,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
@@ -1880,7 +1918,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
@@ -1895,7 +1933,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
@@ -1910,7 +1948,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
@@ -1925,7 +1963,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1940,7 +1978,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -1955,7 +1993,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -1970,7 +2008,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -1985,7 +2023,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -2000,7 +2038,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -2015,7 +2053,7 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -2030,7 +2068,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -2045,7 +2083,7 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -2060,7 +2098,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -2075,7 +2113,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -2090,7 +2128,7 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -2105,7 +2143,7 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -2120,7 +2158,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -2135,7 +2173,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -2150,7 +2188,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -2165,7 +2203,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2180,7 +2218,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2195,7 +2233,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
@@ -2210,7 +2248,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
@@ -2225,7 +2263,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
@@ -2240,7 +2278,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
@@ -2255,7 +2293,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -2270,7 +2308,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
@@ -2285,7 +2323,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -2300,7 +2338,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
@@ -2315,7 +2353,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -2330,7 +2368,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
@@ -2345,7 +2383,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -2360,7 +2398,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -2375,7 +2413,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -2390,7 +2428,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -2405,7 +2443,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
@@ -2420,7 +2458,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -2435,7 +2473,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -2450,7 +2488,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
@@ -2465,7 +2503,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -2480,7 +2518,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
@@ -2495,7 +2533,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -2510,7 +2548,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2525,7 +2563,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2540,7 +2578,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
@@ -2555,7 +2593,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
@@ -2570,7 +2608,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -2585,7 +2623,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -2600,7 +2638,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -2615,7 +2653,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -2630,7 +2668,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -2645,7 +2683,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -2660,7 +2698,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -2675,7 +2713,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -2690,7 +2728,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -2705,7 +2743,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -2720,7 +2758,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -2735,7 +2773,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -2750,7 +2788,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
@@ -2765,7 +2803,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
@@ -2780,7 +2818,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -2795,7 +2833,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
@@ -2810,7 +2848,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
@@ -2825,7 +2863,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
@@ -2840,7 +2878,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -2867,24 +2905,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeaWar info/تجهیزات نادر.xlsx
+++ b/SeaWar info/تجهیزات نادر.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E246B8-57F0-476B-86CA-34FA702D41E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43223F-7C66-41F4-8BCC-8590304F782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
